--- a/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
@@ -133,7 +133,7 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
-    <t xml:space="preserve">lawsafrica-subjects:Money and Business/Banking</t>
+    <t xml:space="preserve">lawsafrica-subjects:Money and Business/Banking, lawsafrica-subjects:People and Work/Children</t>
   </si>
   <si>
     <t xml:space="preserve">✔</t>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">lawsafrica-subjects:Money and Business/Finance</t>
+    <t xml:space="preserve">lawsafrica-subjects:Money and Business/Finance, lawsafrica-subjects:People and Work/Communications</t>
   </si>
   <si>
     <t xml:space="preserve">/akn/za/act/2020/2</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">third-party:Fun stuff</t>
+    <t xml:space="preserve">lawsafrica-subjects:People and Work/Communications, third-party:Fun stuff</t>
   </si>
   <si>
     <t xml:space="preserve">/akn/za/act/2020/3</t>
@@ -293,10 +293,10 @@
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.5"/>

--- a/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">lawsafrica-subjects:People and Work/Communications, third-party:Fun stuff</t>
+    <t xml:space="preserve">lawsafrica-subjects:People and Work/Communications, :Fun stuff</t>
   </si>
   <si>
     <t xml:space="preserve">/akn/za/act/2020/3</t>
@@ -181,7 +181,7 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">third-party:Not so fun stuff</t>
+    <t xml:space="preserve">:Not so fun stuff</t>
   </si>
   <si>
     <t xml:space="preserve">/akn/za/act/2020/4</t>
@@ -293,7 +293,7 @@
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">lawsafrica-subjects:People and Work/Communications, :Fun stuff</t>
+    <t xml:space="preserve">:Fun stuff, lawsafrica-subjects:People and Work/Communications</t>
   </si>
   <si>
     <t xml:space="preserve">/akn/za/act/2020/3</t>
@@ -293,7 +293,7 @@
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">:Fun stuff, lawsafrica-subjects:People and Work/Communications</t>
+    <t xml:space="preserve">lawsafrica-subjects:People and Work/Communications, :Fun stuff</t>
   </si>
   <si>
     <t xml:space="preserve">/akn/za/act/2020/3</t>

--- a/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">lawsafrica-subjects:People and Work/Communications, :Fun stuff</t>
+    <t xml:space="preserve">:Fun stuff, lawsafrica-subjects:People and Work/Communications</t>
   </si>
   <si>
     <t xml:space="preserve">/akn/za/act/2020/3</t>

--- a/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/coding/laws.africa/indigo/indigo_app/tests/xlsx_exporter/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1EE314-5611-B240-B147-928EAA649CE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22020" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Works" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -160,9 +166,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>lawsafrica-subjects:People and Work/Communications, :Fun stuff</t>
-  </si>
-  <si>
     <t>/akn/za/act/2020/3</t>
   </si>
   <si>
@@ -182,16 +185,19 @@
   </si>
   <si>
     <t>/akn/za/act/2020/4 - Four</t>
+  </si>
+  <si>
+    <t>:Fun stuff, lawsafrica-subjects:People and Work/Communications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +235,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -275,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +321,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,6 +373,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,14 +566,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="81.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -658,7 +713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -692,7 +747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -713,28 +768,28 @@
         <v>44013</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="U4" s="1"/>
       <c r="AC4" t="s">
         <v>38</v>
       </c>
       <c r="AD4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE4" t="s">
         <v>49</v>
       </c>
-      <c r="AE4" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
@@ -747,17 +802,17 @@
         <v>44013</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U5" s="1"/>
       <c r="AC5" t="s">
         <v>38</v>
       </c>
       <c r="AD5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5" t="s">
         <v>54</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -31,10 +31,7 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subtype (blank for Acts)</t>
+    <t xml:space="preserve">subtype</t>
   </si>
   <si>
     <t xml:space="preserve">number</t>
@@ -55,10 +52,10 @@
     <t xml:space="preserve">publication_date</t>
   </si>
   <si>
-    <t xml:space="preserve">commencement_date (main)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stub (✔)</t>
+    <t xml:space="preserve">commencement_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stub</t>
   </si>
   <si>
     <t xml:space="preserve">taxonomy</t>
@@ -290,18 +287,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="81.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="81.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -398,144 +396,141 @@
       <c r="AF1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="n">
+        <v>43831</v>
+      </c>
       <c r="K2" s="1" t="n">
         <v>43831</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>43831</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="AB2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="1"/>
       <c r="AC2" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AD2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="n">
-        <v>43831</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>43983</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="T3" s="1"/>
+      <c r="AB3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="AC3" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="AD3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AE3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="n">
-        <v>43831</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="N4" s="0" t="s">
+      <c r="T4" s="1"/>
+      <c r="AB4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="AC4" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="AD4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="AE4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="n">
+        <v>43831</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="n">
-        <v>43831</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="T5" s="1"/>
+      <c r="AB5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="U5" s="1"/>
-      <c r="AC5" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="AD5" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robley/code/work/indigo/indigo_app/tests/xlsx_exporter/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F647FD1-158A-B741-A05C-EE5E9A289428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Works" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>country</t>
   </si>
@@ -179,16 +185,19 @@
   </si>
   <si>
     <t>/akn/za/act/2020/4 - Four</t>
+  </si>
+  <si>
+    <t>principal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +235,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -272,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,9 +321,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,6 +373,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,14 +566,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,70 +610,73 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -637,20 +695,21 @@
       <c r="K2" s="1">
         <v>43831</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" s="1"/>
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -669,20 +728,21 @@
       <c r="K3" s="1">
         <v>43983</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" s="1"/>
+      <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -701,20 +761,21 @@
       <c r="K4" s="1">
         <v>44013</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" s="1"/>
+      <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -733,16 +794,17 @@
       <c r="K5" s="1">
         <v>44013</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" s="1"/>
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>53</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>54</v>
       </c>
     </row>

--- a/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/taxonomies_output_expected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robley/code/work/indigo/indigo_app/tests/xlsx_exporter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/coding/laws.africa/indigo/indigo_app/tests/xlsx_exporter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F647FD1-158A-B741-A05C-EE5E9A289428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A915CE9-6CE5-8340-A8B8-3774A4039DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22900" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Works" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>country</t>
   </si>
@@ -58,9 +58,6 @@
     <t>stub</t>
   </si>
   <si>
-    <t>taxonomy</t>
-  </si>
-  <si>
     <t>primary_work</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>2020</t>
   </si>
   <si>
-    <t>lawsafrica-subjects:Money and Business/Banking; lawsafrica-subjects:People and Work/Children</t>
-  </si>
-  <si>
     <t>✔</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>lawsafrica-subjects:Money and Business/Finance; lawsafrica-subjects:People and Work/Communications</t>
-  </si>
-  <si>
     <t>/akn/za/act/2020/2</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>lawsafrica-subjects:Estates, Trusts and Succession; :Fun stuff; lawsafrica-subjects:People and Work/Communications</t>
-  </si>
-  <si>
     <t>/akn/za/act/2020/3</t>
   </si>
   <si>
@@ -178,9 +166,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>:Not so fun stuff</t>
-  </si>
-  <si>
     <t>/akn/za/act/2020/4</t>
   </si>
   <si>
@@ -188,6 +173,18 @@
   </si>
   <si>
     <t>principal</t>
+  </si>
+  <si>
+    <t>taxonomy_topic</t>
+  </si>
+  <si>
+    <t>lawsafrica-subject-areas-children</t>
+  </si>
+  <si>
+    <t>lawsafrica-subject-areas-communications</t>
+  </si>
+  <si>
+    <t>lawsafrica-subject-areas-communications; lawsafrica-subject-areas-estates-trusts-and-succession</t>
   </si>
 </sst>
 </file>
@@ -247,9 +244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,9 +284,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,26 +319,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,26 +354,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -610,84 +573,84 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
       </c>
       <c r="J2" s="1">
         <v>43831</v>
@@ -697,30 +660,30 @@
       </c>
       <c r="L2" s="1"/>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>37</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1">
         <v>43831</v>
@@ -730,30 +693,30 @@
       </c>
       <c r="L3" s="1"/>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1">
         <v>43831</v>
@@ -763,30 +726,30 @@
       </c>
       <c r="L4" s="1"/>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AC4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1">
         <v>43831</v>
@@ -795,17 +758,14 @@
         <v>44013</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
       <c r="AC5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
